--- a/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls7.xlsx
+++ b/src/art-parent/art/src/main/webapp/WEB-INF/work/templates/sample-jxls7.xlsx
@@ -27,10 +27,10 @@
     <t>Item</t>
   </si>
   <si>
-    <t>${row.ITEM_NAME}</t>
+    <t>${row.item_name}</t>
   </si>
   <si>
-    <t>${row.VOLUME}</t>
+    <t>${row.volume}</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>${row.ITEM_NAME}</c:v>
+                  <c:v>${row.item_name}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,11 +263,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91311104"/>
-        <c:axId val="91316992"/>
+        <c:axId val="101874688"/>
+        <c:axId val="101876480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91311104"/>
+        <c:axId val="101874688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,7 +276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91316992"/>
+        <c:crossAx val="101876480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -284,7 +284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91316992"/>
+        <c:axId val="101876480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -295,7 +295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91311104"/>
+        <c:crossAx val="101874688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
